--- a/vizsgaremek_docs/Conduit_vizsgaremek_manualis_tesztjegyzokonyv_budai_jozsef.xlsx
+++ b/vizsgaremek_docs/Conduit_vizsgaremek_manualis_tesztjegyzokonyv_budai_jozsef.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TC_001" sheetId="1" r:id="rId1"/>
@@ -3006,8 +3006,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4203,7 +4203,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -5415,7 +5415,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -12019,7 +12019,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
